--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\OrangeHRM\orangehrm\src\main\resources\datamanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\orangeHRM\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468A7749-21DE-4B2F-9953-25FC67FA92EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B79F236-4BF8-4C0B-B6E8-CCE45DEE6227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3144" yWindow="3228" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>expectedTitle</t>
   </si>
   <si>
     <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>expectedUserAccountName</t>
+  </si>
+  <si>
+    <t>Bharti Pawar</t>
   </si>
 </sst>
 </file>
@@ -355,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -375,6 +393,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
